--- a/Semana03/Correção/critério_correção_3semana.xlsx
+++ b/Semana03/Correção/critério_correção_3semana.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Critério</t>
   </si>
@@ -35,18 +35,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Quem Sou</t>
-  </si>
-  <si>
-    <t>Projetos</t>
-  </si>
-  <si>
-    <t>Contato</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -54,13 +42,196 @@
   </si>
   <si>
     <t>Nota Final</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>Altura MÍNIMA de 100% da altura da área de visualização</t>
+  </si>
+  <si>
+    <t>Centralizar no elemento pai</t>
+  </si>
+  <si>
+    <t>Remover sublinhado dos links</t>
+  </si>
+  <si>
+    <t>Trocar a cor de fundo para #eee</t>
+  </si>
+  <si>
+    <t>Posicionamento fixo</t>
+  </si>
+  <si>
+    <t>Altura de 100% da área de visualização</t>
+  </si>
+  <si>
+    <t>Largura de 100% do elemento pai</t>
+  </si>
+  <si>
+    <t>Cantos arredondados de 10 pixels</t>
+  </si>
+  <si>
+    <t>Mostrar como blocos em linha</t>
+  </si>
+  <si>
+    <t>Largura de 20 pixels</t>
+  </si>
+  <si>
+    <t>Largura de 62% da área de visualização</t>
+  </si>
+  <si>
+    <t>Posicionamento relativo</t>
+  </si>
+  <si>
+    <t>Afastamento esquerdo de 18%</t>
+  </si>
+  <si>
+    <t>Margem superior e inferior de 15px e de 0px nas laterais</t>
+  </si>
+  <si>
+    <t>Flutuação à esquerda</t>
+  </si>
+  <si>
+    <t>Margens internas superiores e inferiores de 15px e laterais de 30px</t>
+  </si>
+  <si>
+    <t>Alinhamento vertical superior</t>
+  </si>
+  <si>
+    <t>Cor igual à variável "corEscura"</t>
+  </si>
+  <si>
+    <t>Largura de 100% do pai</t>
+  </si>
+  <si>
+    <t>Altura de 3% da área de visualização</t>
+  </si>
+  <si>
+    <t>Remoção de espaços entre células da tabela</t>
+  </si>
+  <si>
+    <t>Linha de texto com de 3% de altura da área de visualização</t>
+  </si>
+  <si>
+    <t>Largura de 1/3 do elemento pai</t>
+  </si>
+  <si>
+    <t>Borda cinza clara de 1px</t>
+  </si>
+  <si>
+    <t>Margem interna de 15px</t>
+  </si>
+  <si>
+    <t>Texto centralizado</t>
+  </si>
+  <si>
+    <t>Gabarito</t>
+  </si>
+  <si>
+    <t>background-color: #eee;</t>
+  </si>
+  <si>
+    <t>text-decoration: none;</t>
+  </si>
+  <si>
+    <t>margin: 0 auto;</t>
+  </si>
+  <si>
+    <t>min-height: 100vh;</t>
+  </si>
+  <si>
+    <t>position: fixed;</t>
+  </si>
+  <si>
+    <t>height: 100vh;</t>
+  </si>
+  <si>
+    <t>width: 100%;</t>
+  </si>
+  <si>
+    <t>border-radius: 10px;</t>
+  </si>
+  <si>
+    <t>display: inline-block;</t>
+  </si>
+  <si>
+    <t>width: 20px;</t>
+  </si>
+  <si>
+    <t>width: 62vw;</t>
+  </si>
+  <si>
+    <t>position: relative;</t>
+  </si>
+  <si>
+    <t>left: 18vw;</t>
+  </si>
+  <si>
+    <t>margin: 15px 0;</t>
+  </si>
+  <si>
+    <t>float: left;</t>
+  </si>
+  <si>
+    <t>vertical-align: top;</t>
+  </si>
+  <si>
+    <t>padding: 15px 30px;</t>
+  </si>
+  <si>
+    <t>color: var(--corEscura);</t>
+  </si>
+  <si>
+    <t>height: 3vw;</t>
+  </si>
+  <si>
+    <t>line-height: 3vw;</t>
+  </si>
+  <si>
+    <t>border-collapse: collapse;</t>
+  </si>
+  <si>
+    <t>width: 33.33%;</t>
+  </si>
+  <si>
+    <t>border: solid 1px #ccc;</t>
+  </si>
+  <si>
+    <t>width: 64px;</t>
+  </si>
+  <si>
+    <t>padding: 15px;</t>
+  </si>
+  <si>
+    <t>text-align: center;</t>
+  </si>
+  <si>
+    <t>Largura de 64px</t>
+  </si>
+  <si>
+    <t>Alterar título</t>
+  </si>
+  <si>
+    <t>Alterar textos</t>
+  </si>
+  <si>
+    <t>Alterar fotos</t>
+  </si>
+  <si>
+    <t>Alterar habilidades</t>
+  </si>
+  <si>
+    <t>Alteração html/CSS</t>
+  </si>
+  <si>
+    <t>Alterar contato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +239,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -100,19 +301,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,162 +646,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2">
-        <f>SUM(C3:C13)/7</f>
-        <v>10</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7">
+        <f>SUM(D3:D38)</f>
+        <v>20</v>
+      </c>
+      <c r="E39" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>